--- a/wujian100_sim/reg_model/Excel/wujian100_usi2_reg_spec.xlsx
+++ b/wujian100_sim/reg_model/Excel/wujian100_usi2_reg_spec.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="377">
   <si>
     <t>序号</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>32'h30</t>
+  </si>
+  <si>
+    <t>24'h30</t>
   </si>
   <si>
     <t>I2C: sets SCL clock low-period counter.
@@ -2764,9 +2767,9 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57:C63"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3338,29 +3341,29 @@
         <v>26</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="16">
         <v>32</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>22</v>
@@ -3377,10 +3380,10 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>26</v>
@@ -3389,7 +3392,7 @@
         <v>27</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:11">
@@ -3400,10 +3403,10 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>26</v>
@@ -3412,7 +3415,7 @@
         <v>27</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" ht="94.5" spans="1:11">
@@ -3423,10 +3426,10 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>26</v>
@@ -3435,7 +3438,7 @@
         <v>42</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" ht="108" spans="1:11">
@@ -3449,26 +3452,26 @@
         <v>41</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" s="16">
         <v>32</v>
@@ -3497,7 +3500,7 @@
         <v>32</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>23</v>
@@ -3506,7 +3509,7 @@
         <v>27</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3520,7 +3523,7 @@
         <v>35</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>23</v>
@@ -3529,26 +3532,26 @@
         <v>27</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E32" s="16">
         <v>32</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>22</v>
@@ -3568,7 +3571,7 @@
         <v>35</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>26</v>
@@ -3577,26 +3580,26 @@
         <v>67</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34" s="16">
         <v>32</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>22</v>
@@ -3613,29 +3616,29 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E36" s="16">
         <v>32</v>
@@ -3644,7 +3647,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>22</v>
@@ -3661,10 +3664,10 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>26</v>
@@ -3673,7 +3676,7 @@
         <v>27</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:11">
@@ -3687,7 +3690,7 @@
         <v>24</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>26</v>
@@ -3696,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3710,7 +3713,7 @@
         <v>29</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>26</v>
@@ -3719,7 +3722,7 @@
         <v>27</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" ht="40.5" spans="1:11">
@@ -3733,7 +3736,7 @@
         <v>32</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>26</v>
@@ -3742,7 +3745,7 @@
         <v>27</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" ht="54" spans="1:11">
@@ -3756,7 +3759,7 @@
         <v>35</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>26</v>
@@ -3765,26 +3768,26 @@
         <v>27</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" s="16">
         <v>32</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>22</v>
@@ -3801,29 +3804,29 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" s="16">
         <v>32</v>
@@ -3832,7 +3835,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>22</v>
@@ -3852,7 +3855,7 @@
         <v>35</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>26</v>
@@ -3861,17 +3864,17 @@
         <v>27</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E46" s="16">
         <v>32</v>
@@ -3880,7 +3883,7 @@
         <v>53</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>22</v>
@@ -3897,29 +3900,29 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E48" s="16">
         <v>32</v>
@@ -3928,7 +3931,7 @@
         <v>53</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>22</v>
@@ -3945,29 +3948,29 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E50" s="16">
         <v>32</v>
@@ -3976,7 +3979,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>22</v>
@@ -3993,10 +3996,10 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>23</v>
@@ -4005,7 +4008,7 @@
         <v>27</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4016,7 +4019,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>22</v>
@@ -4036,7 +4039,7 @@
         <v>32</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>23</v>
@@ -4045,7 +4048,7 @@
         <v>27</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:11">
@@ -4059,7 +4062,7 @@
         <v>35</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>23</v>
@@ -4068,26 +4071,26 @@
         <v>27</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E55" s="16">
         <v>32</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>22</v>
@@ -4107,7 +4110,7 @@
         <v>35</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>26</v>
@@ -4116,26 +4119,26 @@
         <v>67</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E57" s="16">
         <v>32</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>22</v>
@@ -4152,10 +4155,10 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>26</v>
@@ -4164,7 +4167,7 @@
         <v>27</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:11">
@@ -4175,10 +4178,10 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>26</v>
@@ -4187,7 +4190,7 @@
         <v>27</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="40.5" spans="1:11">
@@ -4198,10 +4201,10 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>26</v>
@@ -4210,7 +4213,7 @@
         <v>27</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" ht="40.5" spans="1:11">
@@ -4221,10 +4224,10 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>26</v>
@@ -4233,7 +4236,7 @@
         <v>27</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="54" spans="1:11">
@@ -4244,10 +4247,10 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>26</v>
@@ -4256,7 +4259,7 @@
         <v>42</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4267,29 +4270,29 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E64" s="16">
         <v>32</v>
@@ -4298,7 +4301,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>22</v>
@@ -4318,7 +4321,7 @@
         <v>35</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>23</v>
@@ -4327,26 +4330,26 @@
         <v>27</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E66" s="16">
         <v>32</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>22</v>
@@ -4363,10 +4366,10 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>26</v>
@@ -4375,7 +4378,7 @@
         <v>27</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4386,7 +4389,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>22</v>
@@ -4403,19 +4406,19 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4426,7 +4429,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>22</v>
@@ -4443,29 +4446,29 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E72" s="16">
         <v>32</v>
@@ -4474,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>22</v>
@@ -4491,10 +4494,10 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>26</v>
@@ -4503,7 +4506,7 @@
         <v>27</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4514,10 +4517,10 @@
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>26</v>
@@ -4535,10 +4538,10 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>26</v>
@@ -4556,10 +4559,10 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>26</v>
@@ -4577,10 +4580,10 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>26</v>
@@ -4598,10 +4601,10 @@
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>26</v>
@@ -4619,10 +4622,10 @@
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>26</v>
@@ -4640,10 +4643,10 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>26</v>
@@ -4661,10 +4664,10 @@
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>26</v>
@@ -4682,10 +4685,10 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>26</v>
@@ -4703,10 +4706,10 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>26</v>
@@ -4724,10 +4727,10 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>26</v>
@@ -4745,10 +4748,10 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>26</v>
@@ -4766,10 +4769,10 @@
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>26</v>
@@ -4787,10 +4790,10 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>26</v>
@@ -4811,7 +4814,7 @@
         <v>24</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>26</v>
@@ -4832,7 +4835,7 @@
         <v>29</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>26</v>
@@ -4853,7 +4856,7 @@
         <v>32</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>26</v>
@@ -4874,7 +4877,7 @@
         <v>35</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>26</v>
@@ -4888,10 +4891,10 @@
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E92" s="16">
         <v>32</v>
@@ -4900,7 +4903,7 @@
         <v>20</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>22</v>
@@ -4917,10 +4920,10 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>23</v>
@@ -4929,7 +4932,7 @@
         <v>27</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4940,10 +4943,10 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>23</v>
@@ -4961,10 +4964,10 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>23</v>
@@ -4982,10 +4985,10 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>23</v>
@@ -5003,10 +5006,10 @@
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>23</v>
@@ -5024,10 +5027,10 @@
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>23</v>
@@ -5045,10 +5048,10 @@
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>23</v>
@@ -5066,10 +5069,10 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>23</v>
@@ -5087,10 +5090,10 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>23</v>
@@ -5108,10 +5111,10 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
       <c r="G102" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>23</v>
@@ -5129,10 +5132,10 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
       <c r="G103" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>23</v>
@@ -5150,7 +5153,7 @@
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
       <c r="G104" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H104" s="11" t="s">
         <v>64</v>
@@ -5171,7 +5174,7 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
       <c r="G105" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H105" s="11" t="s">
         <v>66</v>
@@ -5192,10 +5195,10 @@
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
       <c r="G106" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>23</v>
@@ -5213,10 +5216,10 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>23</v>
@@ -5237,7 +5240,7 @@
         <v>24</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>23</v>
@@ -5300,7 +5303,7 @@
         <v>35</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>23</v>
@@ -5314,10 +5317,10 @@
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E112" s="16">
         <v>32</v>
@@ -5326,7 +5329,7 @@
         <v>20</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>22</v>
@@ -5343,10 +5346,10 @@
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="G113" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>23</v>
@@ -5355,7 +5358,7 @@
         <v>27</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" ht="40.5" spans="1:11">
@@ -5366,10 +5369,10 @@
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
       <c r="G114" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>23</v>
@@ -5378,7 +5381,7 @@
         <v>27</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" ht="27" spans="1:11">
@@ -5389,10 +5392,10 @@
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
       <c r="G115" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>23</v>
@@ -5401,7 +5404,7 @@
         <v>27</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" ht="27" spans="1:11">
@@ -5412,10 +5415,10 @@
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>23</v>
@@ -5424,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" ht="27" spans="1:11">
@@ -5435,10 +5438,10 @@
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
       <c r="G117" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>23</v>
@@ -5447,7 +5450,7 @@
         <v>27</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" ht="27" spans="1:11">
@@ -5458,10 +5461,10 @@
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>23</v>
@@ -5470,7 +5473,7 @@
         <v>27</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" ht="27" spans="1:11">
@@ -5481,10 +5484,10 @@
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>23</v>
@@ -5493,7 +5496,7 @@
         <v>27</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" ht="27" spans="1:11">
@@ -5504,10 +5507,10 @@
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>23</v>
@@ -5516,7 +5519,7 @@
         <v>27</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5527,10 +5530,10 @@
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I121" s="4" t="s">
         <v>23</v>
@@ -5539,7 +5542,7 @@
         <v>27</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" ht="27" spans="1:11">
@@ -5550,10 +5553,10 @@
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>23</v>
@@ -5562,7 +5565,7 @@
         <v>27</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" ht="27" spans="1:11">
@@ -5573,10 +5576,10 @@
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>23</v>
@@ -5585,7 +5588,7 @@
         <v>27</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5596,10 +5599,10 @@
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
       <c r="G124" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>23</v>
@@ -5608,7 +5611,7 @@
         <v>27</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -5619,10 +5622,10 @@
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
       <c r="G125" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>23</v>
@@ -5631,7 +5634,7 @@
         <v>27</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" ht="94.5" spans="1:11">
@@ -5642,10 +5645,10 @@
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
       <c r="G126" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>23</v>
@@ -5654,7 +5657,7 @@
         <v>27</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" ht="27" spans="1:11">
@@ -5665,10 +5668,10 @@
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
       <c r="G127" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>23</v>
@@ -5677,7 +5680,7 @@
         <v>27</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" ht="27" spans="1:11">
@@ -5691,7 +5694,7 @@
         <v>24</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>23</v>
@@ -5700,7 +5703,7 @@
         <v>27</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -5714,7 +5717,7 @@
         <v>29</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>23</v>
@@ -5723,7 +5726,7 @@
         <v>27</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -5737,7 +5740,7 @@
         <v>32</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>23</v>
@@ -5746,7 +5749,7 @@
         <v>27</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" ht="94.5" spans="1:11">
@@ -5760,7 +5763,7 @@
         <v>35</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>23</v>
@@ -5769,17 +5772,17 @@
         <v>27</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E132" s="16">
         <v>32</v>
@@ -5788,7 +5791,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>22</v>
@@ -5805,10 +5808,10 @@
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
       <c r="G133" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>26</v>
@@ -5817,7 +5820,7 @@
         <v>27</v>
       </c>
       <c r="K133" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5828,10 +5831,10 @@
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
       <c r="G134" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>26</v>
@@ -5849,10 +5852,10 @@
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
       <c r="G135" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>26</v>
@@ -5870,10 +5873,10 @@
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
       <c r="G136" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>26</v>
@@ -5891,10 +5894,10 @@
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
       <c r="G137" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>26</v>
@@ -5912,10 +5915,10 @@
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>26</v>
@@ -5933,10 +5936,10 @@
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
       <c r="G139" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>26</v>
@@ -5954,10 +5957,10 @@
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
       <c r="G140" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>26</v>
@@ -5975,10 +5978,10 @@
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
       <c r="G141" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>26</v>
@@ -5996,10 +5999,10 @@
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
       <c r="G142" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>26</v>
@@ -6017,10 +6020,10 @@
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
       <c r="G143" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>26</v>
@@ -6038,10 +6041,10 @@
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
       <c r="G144" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>26</v>
@@ -6059,10 +6062,10 @@
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
       <c r="G145" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>26</v>
@@ -6080,10 +6083,10 @@
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
       <c r="G146" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>26</v>
@@ -6101,10 +6104,10 @@
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
       <c r="G147" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>26</v>
@@ -6125,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>26</v>
@@ -6146,7 +6149,7 @@
         <v>29</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>26</v>
@@ -6167,7 +6170,7 @@
         <v>32</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>26</v>
@@ -6188,7 +6191,7 @@
         <v>35</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>26</v>
@@ -6202,10 +6205,10 @@
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E152" s="16">
         <v>32</v>
@@ -6214,7 +6217,7 @@
         <v>20</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>22</v>
@@ -6231,19 +6234,19 @@
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
       <c r="G153" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J153" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" ht="27" spans="1:11">
@@ -6254,19 +6257,19 @@
       <c r="E154" s="16"/>
       <c r="F154" s="16"/>
       <c r="G154" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" ht="27" spans="1:11">
@@ -6277,19 +6280,19 @@
       <c r="E155" s="16"/>
       <c r="F155" s="16"/>
       <c r="G155" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J155" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" ht="27" spans="1:11">
@@ -6300,19 +6303,19 @@
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
       <c r="G156" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J156" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" ht="27" spans="1:11">
@@ -6323,19 +6326,19 @@
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
       <c r="G157" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J157" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K157" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" ht="27" spans="1:11">
@@ -6346,19 +6349,19 @@
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
       <c r="G158" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J158" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K158" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" ht="27" spans="1:11">
@@ -6369,19 +6372,19 @@
       <c r="E159" s="16"/>
       <c r="F159" s="16"/>
       <c r="G159" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J159" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K159" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" ht="27" spans="1:11">
@@ -6392,19 +6395,19 @@
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
       <c r="G160" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K160" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" ht="27" spans="1:11">
@@ -6415,19 +6418,19 @@
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
       <c r="G161" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J161" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" ht="27" spans="1:11">
@@ -6438,19 +6441,19 @@
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
       <c r="G162" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J162" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K162" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="163" ht="27" spans="1:11">
@@ -6461,19 +6464,19 @@
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
       <c r="G163" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J163" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" ht="27" spans="1:11">
@@ -6484,19 +6487,19 @@
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
       <c r="G164" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J164" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" ht="27" spans="1:11">
@@ -6507,19 +6510,19 @@
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
       <c r="G165" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J165" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K165" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166" ht="27" spans="1:11">
@@ -6530,19 +6533,19 @@
       <c r="E166" s="16"/>
       <c r="F166" s="16"/>
       <c r="G166" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J166" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K166" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167" ht="27" spans="1:11">
@@ -6553,19 +6556,19 @@
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
       <c r="G167" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J167" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K167" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" ht="27" spans="1:11">
@@ -6579,16 +6582,16 @@
         <v>24</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J168" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K168" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" ht="27" spans="1:11">
@@ -6602,16 +6605,16 @@
         <v>29</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J169" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K169" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="170" ht="27" spans="1:11">
@@ -6625,16 +6628,16 @@
         <v>32</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J170" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K170" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171" ht="27" spans="1:11">
@@ -6648,26 +6651,26 @@
         <v>35</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J171" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K171" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E172" s="16">
         <v>32</v>
@@ -6696,7 +6699,7 @@
         <v>32</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I173" s="4" t="s">
         <v>26</v>
@@ -6705,7 +6708,7 @@
         <v>27</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" ht="40.5" spans="1:11">
@@ -6719,7 +6722,7 @@
         <v>35</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>26</v>
@@ -6728,26 +6731,26 @@
         <v>27</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E175" s="16">
         <v>32</v>
       </c>
       <c r="F175" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G175" s="23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H175" s="24" t="s">
         <v>22</v>
@@ -6767,16 +6770,16 @@
         <v>60</v>
       </c>
       <c r="H176" s="24" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6804,29 +6807,29 @@
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
       <c r="G178" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H178" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I178" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E179" s="16">
         <v>32</v>
@@ -6835,7 +6838,7 @@
         <v>20</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>22</v>
@@ -6855,7 +6858,7 @@
         <v>35</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>26</v>
@@ -6864,7 +6867,7 @@
         <v>27</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/wujian100_sim/reg_model/Excel/wujian100_usi2_reg_spec.xlsx
+++ b/wujian100_sim/reg_model/Excel/wujian100_usi2_reg_spec.xlsx
@@ -1001,7 +1001,7 @@
     <t>0x5C</t>
   </si>
   <si>
-    <t>INTR_MASK</t>
+    <t>INTR_UNMASK</t>
   </si>
   <si>
     <t>SPI_STOP_MASK</t>
@@ -2767,9 +2767,9 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
